--- a/docs/TicTacToePath.xlsx
+++ b/docs/TicTacToePath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="740" windowWidth="35200" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="2620" yWindow="680" windowWidth="23440" windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,51 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Player</t>
+    <t>Steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A.I</t>
+    <t>Not 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Side</t>
+    <t>Playground</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子3</t>
-  </si>
-  <si>
-    <t>格子4</t>
-  </si>
-  <si>
-    <t>格子5</t>
-  </si>
-  <si>
-    <t>格子6</t>
-  </si>
-  <si>
-    <t>格子7</t>
-  </si>
-  <si>
-    <t>格子8</t>
-  </si>
-  <si>
-    <t>格子9</t>
   </si>
 </sst>
 </file>
@@ -105,27 +72,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,57 +101,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -202,67 +121,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -591,257 +471,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="C1" s="2">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="4">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="C2" s="5">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="C3" s="8">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:10">
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="J5" s="1">
+      <c r="D8" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
